--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F56A6E-2A54-44CF-BCD4-C7714B8E2812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E1DA4-CFF9-4E6D-A320-7EA816E698F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="174">
   <si>
     <t>Sno.</t>
   </si>
@@ -274,12 +274,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>/app/test/s2t/source_parquet_target_parquet_s2t_1.xlsx</t>
-  </si>
-  <si>
-    <t>source_to_stage</t>
-  </si>
-  <si>
     <t>source_to_target</t>
   </si>
   <si>
@@ -340,9 +334,6 @@
     <t>sqlserver</t>
   </si>
   <si>
-    <t>/app/test/s2t/source_parquet_target_parquet_s2t_2.xlsx</t>
-  </si>
-  <si>
     <t>yesorno</t>
   </si>
   <si>
@@ -374,6 +365,201 @@
   </si>
   <si>
     <t>adls-gen2</t>
+  </si>
+  <si>
+    <t>start_date, end_date,operation_type,description</t>
+  </si>
+  <si>
+    <t>id,created_on</t>
+  </si>
+  <si>
+    <t>patientswithnamessplit</t>
+  </si>
+  <si>
+    <t>raw_oracle_database_connection</t>
+  </si>
+  <si>
+    <t>tc29_oracle_src_query.sql</t>
+  </si>
+  <si>
+    <t>patientswithfullname</t>
+  </si>
+  <si>
+    <t>tc29_oracle_tgt_query.sql</t>
+  </si>
+  <si>
+    <t>patientswithbirthdaytoday</t>
+  </si>
+  <si>
+    <t>tc28_oracle_src_query.sql</t>
+  </si>
+  <si>
+    <t>patientswithnotifications</t>
+  </si>
+  <si>
+    <t>tc28_oracle_tgt_query.sql</t>
+  </si>
+  <si>
+    <t>OracleDemoTiger</t>
+  </si>
+  <si>
+    <t>sys.orc_patients_db</t>
+  </si>
+  <si>
+    <t>DEATHDATE,SSN,DRIVERS,PASSPORT,MAIDEN,MARITAL,RACE,ETHNICITY,BIRTHPLACE,ADDRESS,CITY,COUNTY,ZIP,LAT,LON,HEALTHCARE_EXPENSES,HEALTHCARE_COVERAGE</t>
+  </si>
+  <si>
+    <t>sys.orc_patients_stg</t>
+  </si>
+  <si>
+    <t>actualpatients</t>
+  </si>
+  <si>
+    <t>WHERE EXTRACT(MONTH FROM BIRTHDATE) = EXTRACT(MONTH FROM SYSDATE) AND EXTRACT(DAY FROM BIRTHDATE) = EXTRACT(DAY FROM SYSDATE)</t>
+  </si>
+  <si>
+    <t>patientswithbirthday</t>
+  </si>
+  <si>
+    <t>sys.orc_notifications</t>
+  </si>
+  <si>
+    <t>RawS3Parquet</t>
+  </si>
+  <si>
+    <t>patients_source_parquet</t>
+  </si>
+  <si>
+    <t>expectedpatients</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>rawpatients</t>
+  </si>
+  <si>
+    <t>RawS3Bucket</t>
+  </si>
+  <si>
+    <t>patient_source_parquet_manuel.sql</t>
+  </si>
+  <si>
+    <t>curatedpatients</t>
+  </si>
+  <si>
+    <t>CuratedS3Bucket</t>
+  </si>
+  <si>
+    <t>patient_target_parquet_manuel_match.sql</t>
+  </si>
+  <si>
+    <t>patient_target_parquet_manuel_mismatch.sql</t>
+  </si>
+  <si>
+    <t>patients_source.csv</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>patient_source_delimited_manuel.sql</t>
+  </si>
+  <si>
+    <t>patients_target_parquet_mismatch</t>
+  </si>
+  <si>
+    <t>raw_mysql_database_connection</t>
+  </si>
+  <si>
+    <t>patients_db</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>indigo-almanac-384011</t>
+  </si>
+  <si>
+    <t>indigo-almanac-384011.atf_data_target.patients_db_target</t>
+  </si>
+  <si>
+    <t>raw_bigquery_credentials</t>
+  </si>
+  <si>
+    <t>delimitedfile</t>
+  </si>
+  <si>
+    <t>patients_target.csv</t>
+  </si>
+  <si>
+    <t>driven-slice-423611-i9</t>
+  </si>
+  <si>
+    <t>driven-slice-423611-i9.gcp_schema.gcp_patients_src</t>
+  </si>
+  <si>
+    <t>driven-slice-423611-i9.gcp_schema.gcp_patients_tgt</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_19_source_oracle_target_mysql_unprotected.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_parquet_target_parquet_s2t_1.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_parquet_target_parquet_s2t_2.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_csv_target_csv_s2t_3.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_csv_target_csv_s2t_4.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_csv_target_parquet_s2t_5.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_csv_target_parquet_s2t_6_mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_json_target_json_s2t_7_mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_json_target_json_s2t_8_match.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_json_target_parquet_s2t_9_match.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/source_json_target_parquet_s2t_10_mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>test/data/source</t>
+  </si>
+  <si>
+    <t>test/sql/sourcesql</t>
+  </si>
+  <si>
+    <t>test/sql/targetsql</t>
+  </si>
+  <si>
+    <t>test/data/stage</t>
+  </si>
+  <si>
+    <t>test/data/target</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_21_csv_bigquery_match.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_26_names_fullname_etljob.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_27_csv_csv_bigdata_match.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_30_csv_csv_3mill50cols.xlsx</t>
   </si>
 </sst>
 </file>
@@ -473,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -510,6 +696,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -826,7 +1015,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,8 +1083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC16" workbookViewId="0">
-      <selection activeCell="AK25" sqref="AK25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,35 +1095,35 @@
     <col min="3" max="3" width="8.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="60.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1087,10 +1277,10 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2">
@@ -1140,10 +1330,10 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2">
@@ -1160,6 +1350,48 @@
       <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
@@ -1171,6 +1403,48 @@
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -1182,6 +1456,48 @@
       <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -1193,6 +1509,48 @@
       <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -1204,6 +1562,48 @@
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -1215,6 +1615,48 @@
       <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
@@ -1226,6 +1668,50 @@
       <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
@@ -1237,6 +1723,48 @@
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -1248,6 +1776,86 @@
       <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
@@ -1257,7 +1865,87 @@
         <v>19</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -1270,6 +1958,86 @@
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
@@ -1281,6 +2049,86 @@
       <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -1292,6 +2140,72 @@
       <c r="C16" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -1303,6 +2217,72 @@
       <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -1314,6 +2294,75 @@
       <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -1325,6 +2374,75 @@
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
@@ -1336,6 +2454,77 @@
       <c r="C20" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI20" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
@@ -1347,6 +2536,75 @@
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI21" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
@@ -1358,6 +2616,79 @@
       <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI22" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
@@ -1369,6 +2700,75 @@
       <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI23" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
@@ -1378,7 +2778,74 @@
         <v>28</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI24" s="14">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
@@ -1392,69 +2859,69 @@
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y25" s="13"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI25" s="5">
+        <v>107</v>
+      </c>
+      <c r="AI25" s="14">
         <v>8</v>
       </c>
     </row>
@@ -1468,6 +2935,75 @@
       <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI26" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
@@ -1479,6 +3015,76 @@
       <c r="C27" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AF27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI27" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
@@ -1490,6 +3096,54 @@
       <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI28" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
@@ -1501,6 +3155,76 @@
       <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>166</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI29" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
@@ -1512,6 +3236,76 @@
       <c r="C30" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>166</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI30" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
@@ -1522,6 +3316,54 @@
       </c>
       <c r="C31" s="6" t="s">
         <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI31" s="14">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -1556,24 +3398,33 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L25 L2:L3 Y2:Y3 C2:C28" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L21 Y2:Y17 C2:C28 L23:L31 Y28:Y31" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3 P2:P3 E2:E3 AC25 P25 E25" xr:uid="{52AC5FA5-2B55-4263-A486-B93E336849C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC31 P2:P31 E2:E31" xr:uid="{52AC5FA5-2B55-4263-A486-B93E336849C8}">
       <formula1>"Auto,Manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 U3" xr:uid="{3EA29DA5-B24B-4A2B-9AC1-8BA4A560D50C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H17 U3:U17 H31 U31 H28 U28 H24 H19" xr:uid="{3EA29DA5-B24B-4A2B-9AC1-8BA4A560D50C}">
       <formula1>"aws-s3,redshift,oracle"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 V3 I25 V25" xr:uid="{8F7EDE14-A18F-40DD-B09A-2EC9280539EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I13 V3:V31 I16:I31" xr:uid="{8F7EDE14-A18F-40DD-B09A-2EC9280539EB}">
       <formula1>"avro,json,parquet,delimitedfile,delta,table"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25 U25" xr:uid="{60D55E50-011E-4B72-A099-EBDBD8E688D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25 U24:U25" xr:uid="{60D55E50-011E-4B72-A099-EBDBD8E688D7}">
       <formula1>"aws-s3,redshift,oracle,mysql,snowflake"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25" xr:uid="{BAB4B8B2-7599-4D86-AB86-DA25CCC09125}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D27" xr:uid="{BAB4B8B2-7599-4D86-AB86-DA25CCC09125}">
       <formula1>"s2tcompare,likeobjectcompare"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U29:U30 H29:H30 H26:H27 U26:U27 H18 U18:U20 H20:H21 U22:U23 H23" xr:uid="{FDFAED56-C639-4DEC-9D7C-4A42D9CC2D05}">
+      <formula1>"aws-s3,redshift,oracle,mysql"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I15" xr:uid="{8F56CEDD-E969-4788-869D-765DD4CD46AE}">
+      <formula1>"avro,json,parquet,delimited,delta,table"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U21 H22" xr:uid="{D1C20DA2-8C85-451B-8BBB-FCF3F28EE6B4}">
+      <formula1>"aws-s3,redshift,oracle,mysql,bigquery"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1610,7 +3461,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,16 +3478,16 @@
         <v>44</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,10 +3498,10 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -1658,16 +3509,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -1675,49 +3526,49 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E1DA4-CFF9-4E6D-A320-7EA816E698F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4A7DB-3418-489E-94C8-B4BCB2F9E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="protocoltestcasedetails" sheetId="2" r:id="rId2"/>
     <sheet name="config" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">protocoltestcasedetails!$A$1:$AI$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="177">
   <si>
     <t>Sno.</t>
   </si>
@@ -364,9 +367,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>adls-gen2</t>
-  </si>
-  <si>
     <t>start_date, end_date,operation_type,description</t>
   </si>
   <si>
@@ -560,6 +560,18 @@
   </si>
   <si>
     <t>test/s2t/s2t_30_csv_csv_3mill50cols.xlsx</t>
+  </si>
+  <si>
+    <t>adls</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>gcp-gcs</t>
+  </si>
+  <si>
+    <t>teradata</t>
   </si>
 </sst>
 </file>
@@ -611,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -654,12 +666,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -699,6 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
@@ -737,13 +759,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAE0998F-A220-496F-A9F2-1D79AF152730}" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAE0998F-A220-496F-A9F2-1D79AF152730}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B7EB12A5-7DBB-4555-B2C0-33C41BB1C784}" name="comparetype"/>
     <tableColumn id="2" xr3:uid="{29FBA9CE-F214-413F-8067-886B551BF267}" name="querygenerationmode"/>
+    <tableColumn id="5" xr3:uid="{D4F645CD-0CC3-41EA-B655-EFEDB67C1620}" name="yesorno"/>
+    <tableColumn id="4" xr3:uid="{3031386E-16DA-44EE-AA9B-4DE756532190}" name="fileformat"/>
     <tableColumn id="3" xr3:uid="{4C653E17-7023-4482-B115-734A3096F5F2}" name="connectiontype"/>
-    <tableColumn id="4" xr3:uid="{3031386E-16DA-44EE-AA9B-4DE756532190}" name="fileformat"/>
-    <tableColumn id="5" xr3:uid="{D4F645CD-0CC3-41EA-B655-EFEDB67C1620}" name="yesorno"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1084,8 +1106,8 @@
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1299,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>78</v>
@@ -1330,7 +1352,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>78</v>
@@ -1383,7 +1405,7 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG4" s="2" t="s">
         <v>78</v>
@@ -1436,7 +1458,7 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG5" s="2" t="s">
         <v>78</v>
@@ -1489,7 +1511,7 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>78</v>
@@ -1542,7 +1564,7 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG7" s="2" t="s">
         <v>78</v>
@@ -1595,7 +1617,7 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG8" s="2" t="s">
         <v>78</v>
@@ -1648,7 +1670,7 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>78</v>
@@ -1701,13 +1723,13 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI10" s="14">
         <v>8</v>
@@ -1756,7 +1778,7 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG11" s="2" t="s">
         <v>78</v>
@@ -1783,10 +1805,10 @@
         <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>84</v>
@@ -1795,10 +1817,10 @@
         <v>89</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1808,16 +1830,16 @@
         <v>80</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>84</v>
@@ -1826,10 +1848,10 @@
         <v>89</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -1839,19 +1861,19 @@
         <v>80</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI12" s="2">
         <v>5</v>
@@ -1868,16 +1890,16 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>84</v>
@@ -1886,10 +1908,10 @@
         <v>89</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1899,16 +1921,16 @@
         <v>80</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>84</v>
@@ -1917,10 +1939,10 @@
         <v>89</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
@@ -1930,22 +1952,20 @@
         <v>80</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AF13" s="2"/>
       <c r="AG13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI13" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -1965,10 +1985,10 @@
         <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>84</v>
@@ -1977,31 +1997,31 @@
         <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>84</v>
@@ -2010,10 +2030,10 @@
         <v>89</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -2021,19 +2041,19 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI14" s="2">
         <v>5</v>
@@ -2056,10 +2076,10 @@
         <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>84</v>
@@ -2068,31 +2088,31 @@
         <v>88</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>84</v>
@@ -2101,10 +2121,10 @@
         <v>89</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -2112,19 +2132,19 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI15" s="2">
         <v>5</v>
@@ -2147,10 +2167,10 @@
         <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>84</v>
@@ -2159,10 +2179,10 @@
         <v>89</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2172,10 +2192,10 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>84</v>
@@ -2184,10 +2204,10 @@
         <v>89</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -2201,7 +2221,7 @@
         <v>78</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI16" s="2">
         <v>5</v>
@@ -2224,10 +2244,10 @@
         <v>77</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>84</v>
@@ -2236,10 +2256,10 @@
         <v>89</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2249,10 +2269,10 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>84</v>
@@ -2261,10 +2281,10 @@
         <v>89</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
@@ -2278,7 +2298,7 @@
         <v>78</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI17" s="2">
         <v>5</v>
@@ -2301,10 +2321,10 @@
         <v>77</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>94</v>
@@ -2313,10 +2333,10 @@
         <v>91</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2328,10 +2348,10 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>94</v>
@@ -2340,10 +2360,10 @@
         <v>91</v>
       </c>
       <c r="W18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -2358,7 +2378,7 @@
         <v>78</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI18" s="2">
         <v>5</v>
@@ -2381,10 +2401,10 @@
         <v>77</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>84</v>
@@ -2393,10 +2413,10 @@
         <v>89</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2408,10 +2428,10 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>94</v>
@@ -2420,10 +2440,10 @@
         <v>91</v>
       </c>
       <c r="W19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -2438,7 +2458,7 @@
         <v>78</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI19" s="2">
         <v>5</v>
@@ -2461,10 +2481,10 @@
         <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>93</v>
@@ -2473,10 +2493,10 @@
         <v>91</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2488,10 +2508,10 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>94</v>
@@ -2500,10 +2520,10 @@
         <v>91</v>
       </c>
       <c r="W20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -2514,13 +2534,13 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI20" s="14">
         <v>8</v>
@@ -2543,10 +2563,10 @@
         <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>93</v>
@@ -2555,10 +2575,10 @@
         <v>91</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2570,10 +2590,10 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>96</v>
@@ -2582,10 +2602,10 @@
         <v>91</v>
       </c>
       <c r="W21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -2600,7 +2620,7 @@
         <v>78</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI21" s="14">
         <v>8</v>
@@ -2623,26 +2643,26 @@
         <v>77</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
         <v>84</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="L22" t="s">
         <v>31</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
@@ -2652,10 +2672,10 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>96</v>
@@ -2664,10 +2684,10 @@
         <v>91</v>
       </c>
       <c r="W22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -2678,13 +2698,13 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI22" s="14">
         <v>8</v>
@@ -2707,10 +2727,10 @@
         <v>77</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>96</v>
@@ -2719,10 +2739,10 @@
         <v>91</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2734,10 +2754,10 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>96</v>
@@ -2746,10 +2766,10 @@
         <v>91</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -2764,7 +2784,7 @@
         <v>78</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI23" s="14">
         <v>5</v>
@@ -2787,10 +2807,10 @@
         <v>77</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>84</v>
@@ -2799,10 +2819,10 @@
         <v>89</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2814,7 +2834,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>102</v>
@@ -2842,7 +2862,7 @@
         <v>78</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI24" s="14">
         <v>8</v>
@@ -2942,10 +2962,10 @@
         <v>77</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>93</v>
@@ -2954,27 +2974,27 @@
         <v>91</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>93</v>
@@ -2983,10 +3003,10 @@
         <v>91</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -3022,10 +3042,10 @@
         <v>77</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>93</v>
@@ -3034,25 +3054,25 @@
         <v>91</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>93</v>
@@ -3061,20 +3081,20 @@
         <v>91</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AF27" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG27" s="2" t="s">
         <v>78</v>
@@ -3112,7 +3132,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -3127,19 +3147,19 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG28" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI28" s="14">
         <v>8</v>
@@ -3162,10 +3182,10 @@
         <v>80</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>93</v>
@@ -3183,16 +3203,16 @@
         <v>80</v>
       </c>
       <c r="Q29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="T29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>93</v>
@@ -3210,10 +3230,10 @@
         <v>80</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2" t="s">
@@ -3243,10 +3263,10 @@
         <v>80</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>93</v>
@@ -3264,16 +3284,16 @@
         <v>80</v>
       </c>
       <c r="Q30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="T30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>93</v>
@@ -3291,10 +3311,10 @@
         <v>80</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2" t="s">
@@ -3333,7 +3353,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -3348,19 +3368,19 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG31" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI31" s="14">
         <v>8</v>
@@ -3397,6 +3417,7 @@
       <c r="C37" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI31" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L21 Y2:Y17 C2:C28 L23:L31 Y28:Y31" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
@@ -3414,7 +3435,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25 U24:U25" xr:uid="{60D55E50-011E-4B72-A099-EBDBD8E688D7}">
       <formula1>"aws-s3,redshift,oracle,mysql,snowflake"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D27" xr:uid="{BAB4B8B2-7599-4D86-AB86-DA25CCC09125}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D27 D13" xr:uid="{BAB4B8B2-7599-4D86-AB86-DA25CCC09125}">
       <formula1>"s2tcompare,likeobjectcompare"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U29:U30 H29:H30 H26:H27 U26:U27 H18 U18:U20 H20:H21 U22:U23 H23" xr:uid="{FDFAED56-C639-4DEC-9D7C-4A42D9CC2D05}">
@@ -3438,17 +3459,17 @@
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2153F23C-BB87-46DD-B72C-5F54E9657B4C}">
-          <x14:formula1>
-            <xm:f>config!$C$2:$C$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2 U2</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60062090-6690-4B11-B897-7133E606A12B}">
           <x14:formula1>
             <xm:f>config!$D$2:$D$7</xm:f>
           </x14:formula1>
           <xm:sqref>I2 V2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2153F23C-BB87-46DD-B72C-5F54E9657B4C}">
+          <x14:formula1>
+            <xm:f>config!$E$2:$E$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2 U2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3458,22 +3479,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA0C314-29E7-4BFA-93B1-269ADF583B37}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -3481,16 +3503,16 @@
         <v>79</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3498,16 +3520,16 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -3515,61 +3537,82 @@
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>92</v>
-      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="E6" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="E7" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkatesh.thiyag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4A7DB-3418-489E-94C8-B4BCB2F9E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0504EA43-EE8F-42B4-97DE-13FD9CA90669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="1" r:id="rId1"/>
@@ -1040,15 +1040,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,50 +1106,50 @@
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="54.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="22" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="60.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>76</v>
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>81</v>
@@ -2227,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>81</v>
@@ -2868,7 +2868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>81</v>
@@ -2945,7 +2945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3386,32 +3386,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="4"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="4"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="B37" s="4"/>
       <c r="C37" s="6"/>
@@ -3485,17 +3485,17 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>88</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>89</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>90</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>91</v>
       </c>
@@ -3578,40 +3578,40 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J17" s="15"/>
     </row>
   </sheetData>

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkatesh.thiyag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0504EA43-EE8F-42B4-97DE-13FD9CA90669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966D9D97-CF99-42E6-9577-38CB568969AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="181">
   <si>
     <t>Sno.</t>
   </si>
@@ -172,9 +172,6 @@
     <t>testcase21_csv_bigquery_match</t>
   </si>
   <si>
-    <t>test/results/</t>
-  </si>
-  <si>
     <t>comparetype</t>
   </si>
   <si>
@@ -572,6 +569,21 @@
   </si>
   <si>
     <t>teradata</t>
+  </si>
+  <si>
+    <t>/test/results/</t>
+  </si>
+  <si>
+    <t>/test/data/source</t>
+  </si>
+  <si>
+    <t>/test/sql/sourcesql</t>
+  </si>
+  <si>
+    <t>/test/sql/targetsql</t>
+  </si>
+  <si>
+    <t>/test/s2t/source_csv_target_parquet_s2t_6_mismatch.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1049,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1069,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1077,7 +1089,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1085,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1107,7 +1119,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,100 +1172,100 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -1267,10 +1279,10 @@
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1299,10 +1311,10 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2">
@@ -1320,10 +1332,10 @@
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1352,10 +1364,10 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2">
@@ -1373,10 +1385,10 @@
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1405,10 +1417,10 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2">
@@ -1426,10 +1438,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1458,10 +1470,10 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2">
@@ -1479,10 +1491,10 @@
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1511,10 +1523,10 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2">
@@ -1532,10 +1544,10 @@
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1564,10 +1576,10 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2">
@@ -1585,10 +1597,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1617,10 +1629,10 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2">
@@ -1638,10 +1650,10 @@
         <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1670,10 +1682,10 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2">
@@ -1691,10 +1703,10 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1723,13 +1735,13 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI10" s="14">
         <v>8</v>
@@ -1746,10 +1758,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1778,10 +1790,10 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2">
@@ -1799,81 +1811,81 @@
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="U12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI12" s="2">
         <v>5</v>
@@ -1890,79 +1902,79 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="R13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="U13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI13" s="2">
         <v>8</v>
@@ -1979,61 +1991,61 @@
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="U14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -2041,19 +2053,19 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI14" s="2">
         <v>5</v>
@@ -2070,61 +2082,61 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="U15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -2132,19 +2144,19 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI15" s="2">
         <v>5</v>
@@ -2161,28 +2173,28 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2192,22 +2204,22 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -2218,10 +2230,10 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI16" s="2">
         <v>5</v>
@@ -2238,28 +2250,28 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2269,22 +2281,22 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
@@ -2295,10 +2307,10 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI17" s="2">
         <v>5</v>
@@ -2315,70 +2327,70 @@
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W18" s="2" t="s">
+      <c r="X18" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI18" s="2">
         <v>5</v>
@@ -2395,70 +2407,70 @@
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W19" s="2" t="s">
+      <c r="X19" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI19" s="2">
         <v>5</v>
@@ -2475,72 +2487,72 @@
         <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W20" s="2" t="s">
+      <c r="X20" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI20" s="14">
         <v>8</v>
@@ -2557,70 +2569,70 @@
         <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI21" s="14">
         <v>8</v>
@@ -2637,74 +2649,74 @@
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="L22" t="s">
         <v>31</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI22" s="14">
         <v>8</v>
@@ -2721,70 +2733,70 @@
         <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI23" s="14">
         <v>5</v>
@@ -2801,68 +2813,68 @@
         <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI24" s="14">
         <v>8</v>
@@ -2879,67 +2891,67 @@
         <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y25" s="13"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI25" s="14">
         <v>8</v>
@@ -2956,57 +2968,57 @@
         <v>30</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="X26" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="W26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -3016,10 +3028,10 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI26" s="14">
         <v>5</v>
@@ -3036,71 +3048,71 @@
         <v>30</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AF27" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI27" s="14">
         <v>8</v>
@@ -3117,10 +3129,10 @@
         <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3132,7 +3144,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -3147,19 +3159,19 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI28" s="14">
         <v>8</v>
@@ -3176,22 +3188,22 @@
         <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -3200,25 +3212,25 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="T29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -3227,20 +3239,20 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI29" s="14">
         <v>8</v>
@@ -3257,22 +3269,22 @@
         <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -3281,25 +3293,25 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="T30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -3308,20 +3320,20 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI30" s="14">
         <v>8</v>
@@ -3338,10 +3350,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3353,7 +3365,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -3368,19 +3380,19 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AI31" s="14">
         <v>8</v>
@@ -3497,115 +3509,115 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkatesh.thiyag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966D9D97-CF99-42E6-9577-38CB568969AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0099C2E0-D60F-485F-BE4C-B07B494E253A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,7 +1119,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2079,7 +2079,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>75</v>

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4A7DB-3418-489E-94C8-B4BCB2F9E757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D638C1E4-0FB2-470C-9C6E-171D7B98E135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="178">
   <si>
     <t>Sno.</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>teradata</t>
+  </si>
+  <si>
+    <t>dataprofilelimit</t>
   </si>
 </sst>
 </file>
@@ -1103,11 +1106,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,9 +1150,10 @@
     <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1255,8 +1259,11 @@
       <c r="AI1" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1308,8 +1315,11 @@
       <c r="AI2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1361,8 +1371,11 @@
       <c r="AI3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1414,8 +1427,11 @@
       <c r="AI4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1467,8 +1483,11 @@
       <c r="AI5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1520,8 +1539,11 @@
       <c r="AI6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1573,8 +1595,11 @@
       <c r="AI7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1626,8 +1651,11 @@
       <c r="AI8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1679,8 +1707,11 @@
       <c r="AI9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1734,8 +1765,11 @@
       <c r="AI10" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1787,8 +1821,11 @@
       <c r="AI11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1878,8 +1915,11 @@
       <c r="AI12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1967,8 +2007,11 @@
       <c r="AI13" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2058,8 +2101,11 @@
       <c r="AI14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2149,8 +2195,11 @@
       <c r="AI15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2226,8 +2275,11 @@
       <c r="AI16" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2303,8 +2355,11 @@
       <c r="AI17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2383,8 +2438,11 @@
       <c r="AI18" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2463,8 +2521,11 @@
       <c r="AI19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2545,8 +2606,11 @@
       <c r="AI20" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2625,8 +2689,11 @@
       <c r="AI21" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2709,8 +2776,11 @@
       <c r="AI22" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2789,8 +2859,11 @@
       <c r="AI23" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2867,8 +2940,11 @@
       <c r="AI24" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2944,8 +3020,11 @@
       <c r="AI25" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3024,8 +3103,11 @@
       <c r="AI26" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3105,8 +3187,11 @@
       <c r="AI27" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3164,8 +3249,11 @@
       <c r="AI28" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3245,8 +3333,11 @@
       <c r="AI29" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ29" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3326,8 +3417,11 @@
       <c r="AI30" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3385,8 +3479,11 @@
       <c r="AI31" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ31" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="4"/>
       <c r="C32" s="6"/>

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D638C1E4-0FB2-470C-9C6E-171D7B98E135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDE2D4-8216-49C3-9A8B-6D1F9B3E910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="183">
   <si>
     <t>Sno.</t>
   </si>
@@ -575,6 +575,21 @@
   </si>
   <si>
     <t>dataprofilelimit</t>
+  </si>
+  <si>
+    <t>testcase31_snowflake_csv_validation</t>
+  </si>
+  <si>
+    <t>rtpcr_source</t>
+  </si>
+  <si>
+    <t>rtpcr_target</t>
+  </si>
+  <si>
+    <t>rtpcr_diagnostic_lab_testing</t>
+  </si>
+  <si>
+    <t>id,state_name</t>
   </si>
 </sst>
 </file>
@@ -1108,9 +1123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK6" sqref="AK6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,34 +3499,276 @@
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI32" s="14">
+        <v>5</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="2"/>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="2"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="2"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="4"/>
       <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="2"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="4"/>
       <c r="C37" s="6"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AI31" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}"/>
@@ -3520,19 +3777,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L21 Y2:Y17 C2:C28 L23:L31 Y28:Y31" xr:uid="{864DC9FE-D2BF-46C6-8674-EF3F47262FBF}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC31 P2:P31 E2:E31" xr:uid="{52AC5FA5-2B55-4263-A486-B93E336849C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC31 P2:P31 E2:E32" xr:uid="{52AC5FA5-2B55-4263-A486-B93E336849C8}">
       <formula1>"Auto,Manual"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H17 U3:U17 H31 U31 H28 U28 H24 H19" xr:uid="{3EA29DA5-B24B-4A2B-9AC1-8BA4A560D50C}">
       <formula1>"aws-s3,redshift,oracle"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I13 V3:V31 I16:I31" xr:uid="{8F7EDE14-A18F-40DD-B09A-2EC9280539EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I13 V3:V32 I16:I32" xr:uid="{8F7EDE14-A18F-40DD-B09A-2EC9280539EB}">
       <formula1>"avro,json,parquet,delimitedfile,delta,table"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25 U24:U25" xr:uid="{60D55E50-011E-4B72-A099-EBDBD8E688D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25 U24:U25 H32" xr:uid="{60D55E50-011E-4B72-A099-EBDBD8E688D7}">
       <formula1>"aws-s3,redshift,oracle,mysql,snowflake"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D27 D13" xr:uid="{BAB4B8B2-7599-4D86-AB86-DA25CCC09125}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D27 D13 D32" xr:uid="{BAB4B8B2-7599-4D86-AB86-DA25CCC09125}">
       <formula1>"s2tcompare,likeobjectcompare"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U29:U30 H29:H30 H26:H27 U26:U27 H18 U18:U20 H20:H21 U22:U23 H23" xr:uid="{FDFAED56-C639-4DEC-9D7C-4A42D9CC2D05}">
@@ -3541,7 +3798,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I15" xr:uid="{8F56CEDD-E969-4788-869D-765DD4CD46AE}">
       <formula1>"avro,json,parquet,delimited,delta,table"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U21 H22" xr:uid="{D1C20DA2-8C85-451B-8BBB-FCF3F28EE6B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U21 H22 U32" xr:uid="{D1C20DA2-8C85-451B-8BBB-FCF3F28EE6B4}">
       <formula1>"aws-s3,redshift,oracle,mysql,bigquery"</formula1>
     </dataValidation>
   </dataValidations>

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDE2D4-8216-49C3-9A8B-6D1F9B3E910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA217F8-FF49-494C-94A5-F89C4CA228C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="184">
   <si>
     <t>Sno.</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>id,state_name</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_31_snowflake_csv.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1128,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,7 +3569,9 @@
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
+      <c r="AF32" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="AG32" s="2" t="s">
         <v>78</v>
       </c>

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA217F8-FF49-494C-94A5-F89C4CA228C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A4370-1F48-4D68-BE7E-B17FC434B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="184">
   <si>
     <t>Sno.</t>
   </si>
@@ -544,9 +544,6 @@
     <t>test/sql/targetsql</t>
   </si>
   <si>
-    <t>test/data/stage</t>
-  </si>
-  <si>
     <t>test/data/target</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>dataprofilelimit</t>
   </si>
   <si>
-    <t>testcase31_snowflake_csv_validation</t>
-  </si>
-  <si>
     <t>rtpcr_source</t>
   </si>
   <si>
@@ -589,10 +583,16 @@
     <t>rtpcr_diagnostic_lab_testing</t>
   </si>
   <si>
-    <t>id,state_name</t>
-  </si>
-  <si>
-    <t>test/s2t/s2t_31_snowflake_csv.xlsx</t>
+    <t>testcase31_snowflake_parquet_validation</t>
+  </si>
+  <si>
+    <t>id,state</t>
+  </si>
+  <si>
+    <t>db2</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_31_snowflake_parquet_val.xlsx</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAE0998F-A220-496F-A9F2-1D79AF152730}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAE0998F-A220-496F-A9F2-1D79AF152730}" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B7EB12A5-7DBB-4555-B2C0-33C41BB1C784}" name="comparetype"/>
     <tableColumn id="2" xr3:uid="{29FBA9CE-F214-413F-8067-886B551BF267}" name="querygenerationmode"/>
@@ -1126,9 +1126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1278,7 @@
         <v>75</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>148</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>149</v>
@@ -2783,7 +2783,7 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>78</v>
@@ -3194,7 +3194,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AF27" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG27" s="2" t="s">
         <v>78</v>
@@ -3256,7 +3256,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG28" s="2" t="s">
         <v>78</v>
@@ -3486,7 +3486,7 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG31" s="2" t="s">
         <v>78</v>
@@ -3506,7 +3506,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>31</v>
@@ -3518,7 +3518,7 @@
         <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>102</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3541,31 +3541,24 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2" t="s">
         <v>84</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
-      <c r="AB32" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
@@ -3576,7 +3569,7 @@
         <v>78</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI32" s="14">
         <v>5</v>
@@ -3788,7 +3781,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H17 U3:U17 H31 U31 H28 U28 H24 H19" xr:uid="{3EA29DA5-B24B-4A2B-9AC1-8BA4A560D50C}">
       <formula1>"aws-s3,redshift,oracle"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I13 V3:V32 I16:I32" xr:uid="{8F7EDE14-A18F-40DD-B09A-2EC9280539EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I13 I16:I32 V3:V32" xr:uid="{8F7EDE14-A18F-40DD-B09A-2EC9280539EB}">
       <formula1>"avro,json,parquet,delimitedfile,delta,table"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H25 U24:U25 H32" xr:uid="{60D55E50-011E-4B72-A099-EBDBD8E688D7}">
@@ -3841,7 +3834,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,7 +3903,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3918,7 +3911,7 @@
         <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3959,12 +3952,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A4370-1F48-4D68-BE7E-B17FC434B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAE14F9-004D-4C21-B1A8-5A9F99C111B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,9 +1126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG34" sqref="AG34"/>
+      <selection pane="bottomLeft" activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,10 +3572,10 @@
         <v>181</v>
       </c>
       <c r="AI32" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ32" s="2">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">

--- a/datf_core/test/testprotocol/traversedtestprotocol.xlsx
+++ b/datf_core/test/testprotocol/traversedtestprotocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Pyspark\QE_ATF\datf_core\test\testprotocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAE14F9-004D-4C21-B1A8-5A9F99C111B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596C40A-BB30-4407-AF45-292A901B5282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="187">
   <si>
     <t>Sno.</t>
   </si>
@@ -508,9 +508,6 @@
     <t>test/s2t/source_parquet_target_parquet_s2t_1.xlsx</t>
   </si>
   <si>
-    <t>test/s2t/source_parquet_target_parquet_s2t_2.xlsx</t>
-  </si>
-  <si>
     <t>test/s2t/source_csv_target_csv_s2t_3.xlsx</t>
   </si>
   <si>
@@ -532,9 +529,6 @@
     <t>test/s2t/source_json_target_parquet_s2t_9_match.xlsx</t>
   </si>
   <si>
-    <t>test/s2t/source_json_target_parquet_s2t_10_mismatch.xlsx</t>
-  </si>
-  <si>
     <t>test/data/source</t>
   </si>
   <si>
@@ -593,6 +587,21 @@
   </si>
   <si>
     <t>test/s2t/s2t_31_snowflake_parquet_val.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_10_json_parquet_match.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_5_csv_parquet_match.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_6_csv_parquet_mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_1_parquet_parquet_mismatch.xlsx</t>
+  </si>
+  <si>
+    <t>test/s2t/s2t_2_parquet_parquet_match.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1126,9 +1135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333783BD-EC86-4502-A630-819DEFF8253B}">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ32" sqref="AJ32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1287,7 @@
         <v>75</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -1324,12 +1333,14 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="2"/>
+      <c r="AH2" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AI2" s="2">
         <v>5</v>
       </c>
@@ -1380,12 +1391,14 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH3" s="2"/>
+      <c r="AH3" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AI3" s="2">
         <v>5</v>
       </c>
@@ -1436,12 +1449,14 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AI4" s="2">
         <v>5</v>
       </c>
@@ -1492,12 +1507,14 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH5" s="2"/>
+      <c r="AH5" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AI5" s="2">
         <v>5</v>
       </c>
@@ -1548,12 +1565,14 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH6" s="2"/>
+      <c r="AH6" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AI6" s="2">
         <v>5</v>
       </c>
@@ -1604,12 +1623,14 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="AG7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH7" s="2"/>
+      <c r="AH7" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AI7" s="2">
         <v>5</v>
       </c>
@@ -1660,12 +1681,14 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH8" s="2"/>
+      <c r="AH8" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AI8" s="2">
         <v>5</v>
       </c>
@@ -1716,12 +1739,14 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH9" s="2"/>
+      <c r="AH9" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AI9" s="2">
         <v>5</v>
       </c>
@@ -1772,7 +1797,7 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG10" s="2" t="s">
         <v>78</v>
@@ -1830,12 +1855,14 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="AG11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH11" s="2"/>
+      <c r="AH11" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="AI11" s="2">
         <v>5</v>
       </c>
@@ -1872,7 +1899,7 @@
         <v>89</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>128</v>
@@ -1885,7 +1912,7 @@
         <v>80</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>133</v>
@@ -1903,7 +1930,7 @@
         <v>89</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>128</v>
@@ -1916,7 +1943,7 @@
         <v>80</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE12" s="2" t="s">
         <v>136</v>
@@ -1966,7 +1993,7 @@
         <v>89</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>128</v>
@@ -1979,7 +2006,7 @@
         <v>80</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>133</v>
@@ -1997,7 +2024,7 @@
         <v>89</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>128</v>
@@ -2010,7 +2037,7 @@
         <v>80</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE13" s="2" t="s">
         <v>137</v>
@@ -2058,7 +2085,7 @@
         <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>138</v>
@@ -2073,7 +2100,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>140</v>
@@ -2091,7 +2118,7 @@
         <v>89</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>128</v>
@@ -2102,13 +2129,13 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE14" s="2" t="s">
         <v>136</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>78</v>
@@ -2152,7 +2179,7 @@
         <v>88</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>138</v>
@@ -2167,7 +2194,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>140</v>
@@ -2185,7 +2212,7 @@
         <v>89</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>128</v>
@@ -2196,13 +2223,13 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>137</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG15" s="2" t="s">
         <v>78</v>
@@ -2246,7 +2273,7 @@
         <v>89</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>128</v>
@@ -2271,7 +2298,7 @@
         <v>89</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>128</v>
@@ -2326,7 +2353,7 @@
         <v>89</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>128</v>
@@ -2351,7 +2378,7 @@
         <v>89</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>141</v>
@@ -2489,7 +2516,7 @@
         <v>89</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>128</v>
@@ -2738,7 +2765,7 @@
         <v>148</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>149</v>
@@ -2783,7 +2810,7 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>78</v>
@@ -2910,7 +2937,7 @@
         <v>89</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>128</v>
@@ -3194,7 +3221,7 @@
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AF27" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG27" s="2" t="s">
         <v>78</v>
@@ -3256,7 +3283,7 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG28" s="2" t="s">
         <v>78</v>
@@ -3309,7 +3336,7 @@
         <v>80</v>
       </c>
       <c r="Q29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>116</v>
@@ -3336,7 +3363,7 @@
         <v>80</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE29" s="2" t="s">
         <v>118</v>
@@ -3393,7 +3420,7 @@
         <v>80</v>
       </c>
       <c r="Q30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R30" s="2" t="s">
         <v>112</v>
@@ -3420,7 +3447,7 @@
         <v>80</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AE30" s="2" t="s">
         <v>114</v>
@@ -3486,7 +3513,7 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG31" s="2" t="s">
         <v>78</v>
@@ -3506,7 +3533,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>31</v>
@@ -3518,7 +3545,7 @@
         <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>102</v>
@@ -3531,7 +3558,7 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3541,7 +3568,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2" t="s">
@@ -3551,7 +3578,7 @@
         <v>89</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>141</v>
@@ -3563,13 +3590,13 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG32" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AI32" s="14">
         <v>8</v>
@@ -3903,7 +3930,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3911,7 +3938,7 @@
         <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3952,17 +3979,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
